--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487042.9233247668</v>
+        <v>485155.3418083648</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9133151432366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>167.5990957313719</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.8860385675338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>228.0516997358839</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>315.2142492045006</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>204.1186209319384</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>337.455017953679</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.9479264102627</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.0179384138199</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>215.0546805228898</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33.87936029467318</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>9.621991078756682</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>113.6781710760786</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496989041814586</v>
+        <v>173.5954779282459</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>253.1488561805828</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02976576477474424</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>42.20569823125265</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.215988835715</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523581</v>
+        <v>54.76109577523583</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069507</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2105.981665882184</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.981665882184</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,22 +4398,22 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4507,28 +4507,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2056.787465592192</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="C5" t="n">
-        <v>1687.82494865178</v>
+        <v>709.2075429298498</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.55925004503</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>943.7709974467855</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2443.387305656314</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>2443.387305656314</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1568.629239003653</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.363540396903</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>824.5752877986586</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>413.589383009051</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>566.5654221758658</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,19 +5024,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>698.8634468392142</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.444089685863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>543.5079067579561</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>393.3912673456205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>393.3912673456205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>393.3912673456205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293931</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293931</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>933.2366688293931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>712.444089685863</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,16 +5498,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>776.3630235686835</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,13 +5750,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.5712828402494</v>
+        <v>199.5300356889269</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X22" t="n">
-        <v>416.5712828402494</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y22" t="n">
-        <v>416.5712828402494</v>
+        <v>199.5300356889269</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,25 +5990,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6148,7 +6148,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765188</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231707</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W25" t="n">
-        <v>494.14282528621</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6239,37 +6239,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028587</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013486</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075995</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.420029503086</v>
+        <v>439.5324299542166</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565502</v>
+        <v>326.3571123076804</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274848</v>
+        <v>232.0013381767153</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264624</v>
+        <v>139.8491098756926</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981892</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652453</v>
+        <v>730.4517433652452</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503086</v>
+        <v>565.4200295030857</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>231.9043177021518</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042117</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106759</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6889,16 +6889,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010315</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,7 +6956,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649692</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,40 +7418,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525404</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.88923345256785</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>8.406710013102156</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>145.2351313103788</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>286.5092576192336</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>32.92248665775574</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>94.13752431970539</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>158.8724419039327</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>50.6266194094357</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>10.65497486614734</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>132.6142081687044</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.5156522450713</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>65.95700631227318</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>112.0314843129586</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>249.6406542820134</v>
+        <v>78.54216539558206</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>33.08849621799453</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.38245062488062</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>48.01209316312165</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923205</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923206</v>
-      </c>
-      <c r="C2" t="n">
-        <v>348942.7521923207</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
@@ -26326,28 +26326,28 @@
         <v>332374.7007770525</v>
       </c>
       <c r="G2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="H2" t="n">
-        <v>332374.7007770522</v>
+        <v>332374.7007770527</v>
       </c>
       <c r="I2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="J2" t="n">
-        <v>332374.7007770526</v>
+        <v>332374.7007770524</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434798</v>
+        <v>345798.8167434797</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="M2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923204</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284558</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143912</v>
-      </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563561</v>
+        <v>33210.29213563558</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26485,16 +26485,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-480659.1633368559</v>
       </c>
       <c r="C6" t="n">
-        <v>109308.7158776886</v>
+        <v>109308.7158776885</v>
       </c>
       <c r="D6" t="n">
-        <v>109308.7158776885</v>
+        <v>109308.7158776884</v>
       </c>
       <c r="E6" t="n">
-        <v>-299818.3312699993</v>
+        <v>-299915.7903959714</v>
       </c>
       <c r="F6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809246</v>
       </c>
       <c r="G6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809245</v>
       </c>
       <c r="H6" t="n">
-        <v>225341.7052068964</v>
+        <v>225244.2460809248</v>
       </c>
       <c r="I6" t="n">
-        <v>225341.7052068967</v>
+        <v>225244.2460809244</v>
       </c>
       <c r="J6" t="n">
-        <v>48918.48601430387</v>
+        <v>48821.02688833154</v>
       </c>
       <c r="K6" t="n">
-        <v>171797.7107747758</v>
+        <v>171779.2170368414</v>
       </c>
       <c r="L6" t="n">
-        <v>203420.2827086683</v>
+        <v>203420.2827086684</v>
       </c>
       <c r="M6" t="n">
-        <v>78962.1742756981</v>
+        <v>78962.17427569818</v>
       </c>
       <c r="N6" t="n">
-        <v>213763.1895095353</v>
+        <v>213763.1895095354</v>
       </c>
       <c r="O6" t="n">
         <v>213763.1895095355</v>
       </c>
       <c r="P6" t="n">
-        <v>169600.5842066899</v>
+        <v>169600.5842066898</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108369</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.8389433268983</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>57.43600972671234</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.2516047562942</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>126.631341884799</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>91.66179653721088</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.18263959690384</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.6655490888566</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>11.78595076373398</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.88405377167459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.56671493827486</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -35018,10 +35018,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35489,10 +35489,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>289.1469384085921</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35501,16 +35501,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,19 +35735,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>257.6644149691264</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35984,7 +35984,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>394.4928362664032</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>619.7038310172466</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412252</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043175</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>136.0477032746121</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>408.1301468599571</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478575</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>383.8211928074487</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
